--- a/src/assets/ChartData.xlsx
+++ b/src/assets/ChartData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agoldenbaum\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etanev\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ABE6474-C1A5-474A-A03B-FCAB1C2F3CD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF96D99-9BBD-45EA-B241-D98B6D66D0AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6387F44-F7CC-4290-BFF5-E8BBD5EB1DF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6387F44-F7CC-4290-BFF5-E8BBD5EB1DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61,8 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,14 +397,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3CC0C5-6E98-4753-8230-BF3AD1AD6B7F}">
-  <dimension ref="A4:D6"/>
+  <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
@@ -429,5 +463,236 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010057CEF89AB62A0E4EA7988ED43DDE8EA3" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c9d1b8e9994e3b17a482726883438e03">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="17ead4b6-db93-4350-9570-254daf491dce" xmlns:ns3="924db100-0923-47b7-99a4-f6b934efba50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="418a119ea804417df06cd8258026ede2" ns2:_="" ns3:_="">
+    <xsd:import namespace="17ead4b6-db93-4350-9570-254daf491dce"/>
+    <xsd:import namespace="924db100-0923-47b7-99a4-f6b934efba50"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="17ead4b6-db93-4350-9570-254daf491dce" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="924db100-0923-47b7-99a4-f6b934efba50" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{880D79A9-0A4C-44BD-88B5-263F3F71757A}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE2C9337-AE28-4443-B493-973A8A2F921F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35D6FD2C-B00E-423C-9D21-4E3AC4725540}"/>
 </file>